--- a/biology/Neurosciences/Chimiotopie/Chimiotopie.xlsx
+++ b/biology/Neurosciences/Chimiotopie/Chimiotopie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chimiotopie est une organisation des odeurs.
 En effet, en fonction de leur position les neurones vont être spécifiques pour une odeur particulière et tous les neurones qui reconnaissent une même odeur sont à côté les uns des autres.
